--- a/biology/Mycologie/Crepidotus_variabilis/Crepidotus_variabilis.xlsx
+++ b/biology/Mycologie/Crepidotus_variabilis/Crepidotus_variabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crepidotus variabilis, le Crépidote variable[1], est une espèce de champignons saprophytes de la famille des Crepidotaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crepidotus variabilis, le Crépidote variable, est une espèce de champignons saprophytes de la famille des Crepidotaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon n'est pas comestible.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (19 janvier 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (19 janvier 2023) :
 Crepidotus variabilis var. sphaerosporus (Pat.) Quél., 1886
 Crepidotus variabilis var. stercorarius Reichert &amp; Aviz.-Hersh., 1959
 Crepidotus variabilis var. subsphaerosporus J.E. Lange, 1940
@@ -577,12 +593,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Crepidotus variabilis (Pers.) P. Kumm., 1871[2],[3].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus variabilis Pers., 1800[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Crépidote variable[1].
-Crepidotus variabilis a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Crepidotus variabilis (Pers.) P. Kumm., 1871,.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus variabilis Pers., 1800.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Crépidote variable.
+Crepidotus variabilis a pour synonymes :
 Agaricus sessilis Britzelm., 1894
 Agaricus sessilis Bull., 1784
 Agaricus variabilis Pers., 1800
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Paul Kummer, Der Führer in die Pilzkunde : Anleitung zum methodischen, leichten und sichern Bestimmen der in Deutschland vorkommenden Pilze : mit Ausnahme der Schimmel- und allzu winzigen Schleim- und Kern-Pilzchen, Zerbst, 1871, 146 p. (DOI 10.5962/BHL.TITLE.50494, lire en ligne)</t>
         </is>
